--- a/structure.xlsx
+++ b/structure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sota/Library/CloudStorage/Dropbox/2 Business/1 Datons/2 Areas/Courses/API/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sota/Library/CloudStorage/Dropbox/2 Business/1 Datons/2 Areas/Courses/APIs-WS/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3C8156-028F-0041-B738-8A96256415F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9FE101-D3FC-4D4D-B7D7-CE36D2991C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24000" windowHeight="37900" xr2:uid="{EF14A9B2-F1BC-4B69-A46C-AC0611DBE569}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 Only until level 2 (see Datasets sheet for more information).</t>
       </text>
     </comment>
-    <comment ref="D10" authorId="2" shapeId="0" xr:uid="{F53BA1F7-FC92-F04D-AFCF-75945F398E17}">
+    <comment ref="D11" authorId="2" shapeId="0" xr:uid="{F53BA1F7-FC92-F04D-AFCF-75945F398E17}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="162">
   <si>
     <t>Practice Dataset</t>
   </si>
@@ -646,13 +646,19 @@
   </si>
   <si>
     <t>Report</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Use function from custom module</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,12 +680,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -746,9 +746,6 @@
   </cellStyles>
   <dxfs count="45">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -867,6 +864,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -912,32 +912,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09A4D5F8-F551-AA43-AB83-7D7E559A1BA9}" name="Table3" displayName="Table3" ref="A2:F10" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="A2:F10" xr:uid="{09A4D5F8-F551-AA43-AB83-7D7E559A1BA9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{09A4D5F8-F551-AA43-AB83-7D7E559A1BA9}" name="Table3" displayName="Table3" ref="A2:F11" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A2:F11" xr:uid="{09A4D5F8-F551-AA43-AB83-7D7E559A1BA9}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EF068334-46E1-414B-9F46-25C325E14551}" name="Chapter" dataDxfId="42" totalsRowDxfId="41"/>
     <tableColumn id="9" xr3:uid="{9AA6F2B0-4527-CC43-918A-7C7CF6D1DD88}" name="Lesson" dataDxfId="40" totalsRowDxfId="39"/>
     <tableColumn id="2" xr3:uid="{D69B8014-BD05-8E48-93A5-69A89077AAA6}" name="Name" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{90A968D7-496C-4847-96C2-75BD5DB00367}" name="Topic" dataDxfId="0" totalsRowDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{E88D21AC-F3F6-2D4E-9195-02E08A0599E5}" name="Provided" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{AB6DF7F3-F274-8444-BE25-D09711DB690D}" name="Raw" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{90A968D7-496C-4847-96C2-75BD5DB00367}" name="Topic" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{E88D21AC-F3F6-2D4E-9195-02E08A0599E5}" name="Provided" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{AB6DF7F3-F274-8444-BE25-D09711DB690D}" name="Raw" dataDxfId="32" totalsRowDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D5FB53A5-A3F3-FE45-B313-0961229CEEDF}" name="Table37" displayName="Table37" ref="A2:H27" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D5FB53A5-A3F3-FE45-B313-0961229CEEDF}" name="Table37" displayName="Table37" ref="A2:H27" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A2:H27" xr:uid="{09A4D5F8-F551-AA43-AB83-7D7E559A1BA9}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{8FA1E02D-FC85-924A-8B37-15670CFE2BD0}" name="Landing" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="1" xr3:uid="{B89333B5-9C24-B148-9986-9C55762E0630}" name="Chapter" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{485706AE-011B-144C-BB0E-B47067BB7766}" name="Lesson" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{64E0CC98-0DE3-6747-B07A-869BD81B410E}" name="Name" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{9AA37CCC-8FF5-FC4C-8CE6-32C9957B0059}" name="Explain" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{7CC5F9DF-2934-2A48-AE5C-EDB0DEAFDFA1}" name="Provided" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{EFBB9F66-9A63-F049-B08B-344378D74FE5}" name="Raw" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{CED88A30-DAD4-8540-872C-6A9FEB849980}" name="Duration" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{8FA1E02D-FC85-924A-8B37-15670CFE2BD0}" name="Landing" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{B89333B5-9C24-B148-9986-9C55762E0630}" name="Chapter" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{485706AE-011B-144C-BB0E-B47067BB7766}" name="Lesson" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{64E0CC98-0DE3-6747-B07A-869BD81B410E}" name="Name" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{9AA37CCC-8FF5-FC4C-8CE6-32C9957B0059}" name="Explain" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{7CC5F9DF-2934-2A48-AE5C-EDB0DEAFDFA1}" name="Provided" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{EFBB9F66-9A63-F049-B08B-344378D74FE5}" name="Raw" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{CED88A30-DAD4-8540-872C-6A9FEB849980}" name="Duration" dataDxfId="15" totalsRowDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -947,9 +947,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83E24D88-5B1B-A743-B664-35E0842CB17C}" name="Table2" displayName="Table2" ref="A1:C11" totalsRowShown="0">
   <autoFilter ref="A1:C11" xr:uid="{83E24D88-5B1B-A743-B664-35E0842CB17C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B1FED650-617A-EE40-8570-FF07F2362E51}" name="ID" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{21943872-6458-1542-B27D-A56CBDE6B30C}" name="Type" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{3A51E2C7-1F27-2744-8A49-5A3E21CDEEB1}" name="Instruction" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{B1FED650-617A-EE40-8570-FF07F2362E51}" name="ID" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{21943872-6458-1542-B27D-A56CBDE6B30C}" name="Type" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{3A51E2C7-1F27-2744-8A49-5A3E21CDEEB1}" name="Instruction" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -969,18 +969,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1622BB37-2F85-014A-8415-3C928EAE174E}" name="Table4" displayName="Table4" ref="A2:I10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1622BB37-2F85-014A-8415-3C928EAE174E}" name="Table4" displayName="Table4" ref="A2:I10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A2:I10" xr:uid="{1622BB37-2F85-014A-8415-3C928EAE174E}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F042BBB5-52B2-4F46-B248-04866C3B9A5F}" name="Name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{0B8E1BB7-BA62-BA49-BF39-DC972FAD3967}" name="Description" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{DB09293F-BFF0-D44B-9F6C-83A7485E11DE}" name="Industry" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{5F11969D-58C9-6A4E-819A-942939D014A4}" name="Source" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{EC3E4A5B-F4A0-8C4D-BAFC-68B776BA0725}" name="Level" dataDxfId="5" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{EF09BCC4-7185-2A48-8900-10DE9CDA13A5}" name="Categorical" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{AFE28D39-C491-F244-9205-EC8DC07CA637}" name="Numerical" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{1CC25715-8A7F-6144-BE6E-C9296AAA46FB}" name="Time Series" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{33CA5082-3829-F84D-9351-030D09B88EC3}" name="Grouping" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F042BBB5-52B2-4F46-B248-04866C3B9A5F}" name="Name" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0B8E1BB7-BA62-BA49-BF39-DC972FAD3967}" name="Description" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{DB09293F-BFF0-D44B-9F6C-83A7485E11DE}" name="Industry" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{5F11969D-58C9-6A4E-819A-942939D014A4}" name="Source" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{EC3E4A5B-F4A0-8C4D-BAFC-68B776BA0725}" name="Level" dataDxfId="4" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{EF09BCC4-7185-2A48-8900-10DE9CDA13A5}" name="Categorical" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{AFE28D39-C491-F244-9205-EC8DC07CA637}" name="Numerical" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{1CC25715-8A7F-6144-BE6E-C9296AAA46FB}" name="Time Series" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{33CA5082-3829-F84D-9351-030D09B88EC3}" name="Grouping" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1324,7 +1324,7 @@
     <text>Student may use datasets from the raw folder.
 Only until level 2 (see Datasets sheet for more information).</text>
   </threadedComment>
-  <threadedComment ref="D10" dT="2024-05-07T07:52:00.07" personId="{1EEF4894-460F-0248-B02E-12DD1588AF46}" id="{F53BA1F7-FC92-F04D-AFCF-75945F398E17}">
+  <threadedComment ref="D11" dT="2024-05-07T07:52:00.07" personId="{1EEF4894-460F-0248-B02E-12DD1588AF46}" id="{F53BA1F7-FC92-F04D-AFCF-75945F398E17}">
     <text>Recommend taking the Python w/ Data course.</text>
   </threadedComment>
 </ThreadedComments>
@@ -1370,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942A3B40-E552-4595-9D29-86783CDE0D80}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1491,56 +1491,70 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
